--- a/Report/Convergence.xlsx
+++ b/Report/Convergence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forster\Documents\University\Y3 21-22\Computer Modelling\Exercise 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forster\Documents\University\Y3 21-22\Computer Modelling\Exercise 3\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{64C482F4-30DA-47A3-82D9-15550A092EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3864D847-F1B4-4D63-B17E-6111BE451324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-12" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="22932" yWindow="-12" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="13">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="20" uniqueCount="14">
   <si>
     <t>Convergence</t>
   </si>
@@ -77,11 +77,14 @@
   <si>
     <t>delta Wavenumber</t>
   </si>
+  <si>
+    <t>Result:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <start/>
       <end/>
@@ -364,53 +367,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,15 +424,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +748,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3101,11 +3140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,283 +3159,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
-      <c r="K2" s="1" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="K3" s="12" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="21">
         <v>1525.5847124925599</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="22">
         <v>2353.63715754635</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="22">
         <v>2249.5697130245599</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <v>1525.5847124925599</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="22">
         <v>2353.63715754635</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="23">
         <v>2249.5697130245599</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="4">
         <v>0.01</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="5">
         <v>2.92857278231578E-2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="5">
         <v>2.2714285714285399E-2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="17">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4">
         <v>0.01</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="4">
         <v>2.11806731138354E-3</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="5">
         <v>2.2714285714285399E-2</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="24">
         <v>0</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="25">
         <v>0.54277709934631002</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="25">
         <v>0.47456230690010298</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="25">
         <v>0</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="25">
         <v>0.54277709934631002</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="26">
         <v>0.47456230690010298</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="7">
         <v>2.6226391722596601E-3</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="7">
         <v>1.06976744186053E-3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="19">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="6">
         <v>2.09033029074405E-5</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="7">
         <v>1.06976744186053E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="6">
         <v>1E-4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="6">
         <v>2.6056715464177E-4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="6">
         <v>1.3966480446933499E-4</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="19">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6">
         <v>1E-4</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="6">
         <v>2.09006827879183E-7</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="7">
         <v>1.3966480446933499E-4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="6">
         <v>2.60352465024434E-5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="19">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="6">
         <v>2.09017904627894E-9</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="6">
         <v>0.1</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="7">
         <v>2.92857278231578E-2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="7">
         <v>2.2714285714285399E-2</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="19">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6">
         <v>0.1</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="7">
         <v>2.11806731138354E-3</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="7">
         <v>2.2714285714285399E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="8">
         <v>0.5</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="9">
         <v>1.0556604383677</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="9">
         <v>0.38637142857142798</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="21">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8">
         <v>0.5</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="9">
         <v>1.02542630333527</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="9">
         <v>7.3849999999999805E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="F2:H3"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
